--- a/Design/职业设计.xlsx
+++ b/Design/职业设计.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub Projects\BigRouge\Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bwabc\FastDesktop\BigRouge\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DACC49A-0B7D-47A9-AEBA-36BAF20E6D0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEAFDE5-0442-4E62-BB23-9F8EF83539F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{F1145D63-4D2C-4CB0-8300-B9FBD4C531AE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>战士</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,34 +117,6 @@
   </si>
   <si>
     <t>NPC状态机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表情动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>施法1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>施法2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行走动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>施法动作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -507,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F12A50-4A96-4D69-88D2-4C70DD6DCE34}">
-  <dimension ref="B2:M28"/>
+  <dimension ref="B2:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="I14" sqref="I14:K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -606,65 +578,40 @@
       <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="I14" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>17</v>
       </c>
-      <c r="J15" t="s">
-        <v>33</v>
-      </c>
-      <c r="K15" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="K16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>20</v>
       </c>
-      <c r="J18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="J25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="J28" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Design/职业设计.xlsx
+++ b/Design/职业设计.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bwabc\FastDesktop\BigRouge\Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub Projects\BigRouge\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEAFDE5-0442-4E62-BB23-9F8EF83539F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4484C522-28CB-406E-B3DF-052ED086FFA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{F1145D63-4D2C-4CB0-8300-B9FBD4C531AE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="1" xr2:uid="{F1145D63-4D2C-4CB0-8300-B9FBD4C531AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="属性" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>战士</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,6 +118,50 @@
   </si>
   <si>
     <t>NPC状态机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defaultValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -481,7 +526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F12A50-4A96-4D69-88D2-4C70DD6DCE34}">
   <dimension ref="B2:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14:K29"/>
     </sheetView>
   </sheetViews>
@@ -618,4 +663,183 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC3C77EF-1DA2-4982-857D-A9806F6D4E63}">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>